--- a/filtered_bloomberg_data.xlsx
+++ b/filtered_bloomberg_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1552,104 +1552,156 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>SU FP Equity</t>
+          <t>SPX Index</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SU FP Equity</t>
+          <t>SPX Index</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SU1 FP 11/15/24 C260 Equity</t>
+          <t>SPXW US 11/15/24 P5260 Index</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>247.45</v>
+        <v>5841.47</v>
       </c>
       <c r="E22" t="n">
-        <v>260</v>
+        <v>5260</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>45611</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SU1 FP 11/15/24 C260 Equity</t>
+          <t>SPXW US 11/15/24 P5260 Index</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.261612</v>
+        <v>-0.06063</v>
       </c>
       <c r="I22" t="n">
-        <v>0.040838</v>
+        <v>0.016447</v>
       </c>
       <c r="J22" t="n">
-        <v>3.04</v>
+        <v>11.6</v>
       </c>
       <c r="K22" t="n">
-        <v>309</v>
+        <v>190</v>
       </c>
       <c r="L22" t="n">
-        <v>2.76</v>
+        <v>11.3</v>
       </c>
       <c r="M22" t="n">
-        <v>272.195</v>
+        <v>5257.323</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0507173166296222</v>
+        <v>-0.09954172494252311</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
+          <t>SU FP Equity</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SU FP Equity</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SU1 FP 11/15/24 C260 Equity</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>247.45</v>
+      </c>
+      <c r="E23" t="n">
+        <v>260</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>SU1 FP 11/15/24 C260 Equity</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>0.261612</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.040838</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K23" t="n">
+        <v>309</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M23" t="n">
+        <v>272.195</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0507173166296222</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
           <t>TTE FP Equity</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>TTE FP Equity</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>TO1 FP 11/15/24 C64 Equity</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D24" t="n">
         <v>59.78</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E24" t="n">
         <v>64</v>
       </c>
-      <c r="F23" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="F24" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>TO1 FP 11/15/24 C64 Equity</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>0.193888</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I24" t="n">
         <v>0.041985</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J24" t="n">
         <v>0.41</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K24" t="n">
         <v>464</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L24" t="n">
         <v>0.35</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M24" t="n">
         <v>65.75800000000001</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N24" t="n">
         <v>0.07059217129474749</v>
       </c>
     </row>

--- a/filtered_bloomberg_data.xlsx
+++ b/filtered_bloomberg_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,55 +455,60 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>TYPE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>PX_LAST</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>STRIKE_PRICE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>EXPIRY_DATE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>SECURITY_y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>DELTA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>GAMMA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>PX_ASK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>PX_BID</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>OPEN_INT</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>PX_BID</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>TARGET_STRIKE</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Moneyness</t>
         </is>
@@ -525,1184 +530,1356 @@
           <t>AAPL US 11/15/24 C245 Equity</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>232.15</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>245</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>AAPL US 11/15/24 C245 Equity</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.230449</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.045959</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>2.04</v>
-      </c>
-      <c r="K2" t="n">
-        <v>66823</v>
       </c>
       <c r="L2" t="n">
         <v>1.98</v>
       </c>
       <c r="M2" t="n">
+        <v>66823</v>
+      </c>
+      <c r="N2" t="n">
         <v>255.365</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.05535214301098423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ABBV UN Equity</t>
+          <t>ABBN SE Equity</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ABBV UN Equity</t>
+          <t>ABBN SE Equity</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ABBV US 11/15/24 C200 Equity</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>188.57</v>
+          <t>ABBN SW 11/15/24 C52 Equity</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>200</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ABBV US 11/15/24 C200 Equity</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>0.265636</v>
+        <v>49.43</v>
+      </c>
+      <c r="F3" t="n">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ABBN SW 11/15/24 C52 Equity</t>
+        </is>
       </c>
       <c r="I3" t="n">
-        <v>0.039799</v>
+        <v>0.212936</v>
       </c>
       <c r="J3" t="n">
-        <v>2.41</v>
+        <v>0.048257</v>
       </c>
       <c r="K3" t="n">
-        <v>2732</v>
+        <v>0.35</v>
       </c>
       <c r="L3" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="M3" t="n">
-        <v>207.427</v>
+        <v>2104</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06061409556133013</v>
+        <v>54.373</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.05199271697349794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AMZN UW Equity</t>
+          <t>ABBV UN Equity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AMZN UW Equity</t>
+          <t>ABBV UN Equity</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AMZN US 11/15/24 C205 Equity</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>187.53</v>
+          <t>ABBV US 11/15/24 C200 Equity</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>205</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>AMZN US 11/15/24 C205 Equity</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>0.214692</v>
+        <v>188.57</v>
+      </c>
+      <c r="F4" t="n">
+        <v>200</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ABBV US 11/15/24 C200 Equity</t>
+        </is>
       </c>
       <c r="I4" t="n">
-        <v>0.029037</v>
+        <v>0.265636</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>0.039799</v>
       </c>
       <c r="K4" t="n">
-        <v>20745</v>
+        <v>2.41</v>
       </c>
       <c r="L4" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="M4" t="n">
-        <v>206.283</v>
+        <v>2732</v>
       </c>
       <c r="N4" t="n">
-        <v>0.09315842798485585</v>
+        <v>207.427</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.06061409556133013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ASML NA Equity</t>
+          <t>AMZN UW Equity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ASML NA Equity</t>
+          <t>AMZN UW Equity</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ASL NA 11/15/24 C700 Equity</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>634.2</v>
+          <t>AMZN US 11/15/24 C205 Equity</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>700</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>ASL NA 11/15/24 C700 Equity</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>0.311359</v>
+        <v>187.53</v>
+      </c>
+      <c r="F5" t="n">
+        <v>205</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>AMZN US 11/15/24 C205 Equity</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>0.03006</v>
+        <v>0.214692</v>
       </c>
       <c r="J5" t="n">
-        <v>14.9</v>
+        <v>0.029037</v>
       </c>
       <c r="K5" t="n">
-        <v>412</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>14.15</v>
+        <v>2.1</v>
       </c>
       <c r="M5" t="n">
-        <v>697.6200000000001</v>
+        <v>20745</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1037527593818983</v>
+        <v>206.283</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.09315842798485585</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ATCOA SS Equity</t>
+          <t>ASML NA Equity</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATCOA SS Equity</t>
+          <t>ASML NA Equity</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ATCOA SS 11/15/24 C200 Equity</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>184</v>
+          <t>ASM GR 11/15/24 C720 Equity</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>ATCOA SS 11/15/24 C200 Equity</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>0.221484</v>
+        <v>653.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>720</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ASM GR 11/15/24 C720 Equity</t>
+        </is>
       </c>
       <c r="I6" t="n">
-        <v>0.031876</v>
+        <v>0.221049</v>
       </c>
       <c r="J6" t="n">
-        <v>2.2</v>
+        <v>0.025573</v>
       </c>
       <c r="K6" t="n">
-        <v>1008</v>
+        <v>10.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.55</v>
+        <v>9.1</v>
       </c>
       <c r="M6" t="n">
-        <v>202.4</v>
+        <v>102</v>
       </c>
       <c r="N6" t="n">
-        <v>0.08695652173913038</v>
+        <v>719.2900000000001</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.1010857929346995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AVGO UW Equity</t>
+          <t>ATCOA SS Equity</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AVGO UW Equity</t>
+          <t>ATCOA SS Equity</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AVGO US 11/15/24 C200 Equity</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>181.53</v>
+          <t>ATCOA SS 11/15/24 C200 Equity</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E7" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="F7" t="n">
         <v>200</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>AVGO US 11/15/24 C200 Equity</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>0.234442</v>
+      <c r="G7" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ATCOA SS 11/15/24 C200 Equity</t>
+        </is>
       </c>
       <c r="I7" t="n">
-        <v>0.025852</v>
+        <v>0.221484</v>
       </c>
       <c r="J7" t="n">
-        <v>2.79</v>
+        <v>0.031876</v>
       </c>
       <c r="K7" t="n">
-        <v>7122</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.75</v>
+        <v>1.55</v>
       </c>
       <c r="M7" t="n">
-        <v>199.683</v>
+        <v>1008</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1017462678345178</v>
+        <v>202.675</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.08548168249660781</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>BRK/B UN Equity</t>
+          <t>AVGO UW Equity</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRK/B UN Equity</t>
+          <t>AVGO UW Equity</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BRKB US 11/15/24 C490 Equity</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>465.85</v>
+          <t>AVGO US 11/15/24 C200 Equity</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>490</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>BRKB US 11/15/24 C490 Equity</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>0.171691</v>
+        <v>181.53</v>
+      </c>
+      <c r="F8" t="n">
+        <v>200</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>AVGO US 11/15/24 C200 Equity</t>
+        </is>
       </c>
       <c r="I8" t="n">
-        <v>0.053104</v>
+        <v>0.234442</v>
       </c>
       <c r="J8" t="n">
-        <v>2.15</v>
+        <v>0.025852</v>
       </c>
       <c r="K8" t="n">
-        <v>745</v>
+        <v>2.79</v>
       </c>
       <c r="L8" t="n">
-        <v>2.01</v>
+        <v>2.75</v>
       </c>
       <c r="M8" t="n">
-        <v>512.4350000000001</v>
+        <v>7122</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05184072126220873</v>
+        <v>199.683</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.1017462678345178</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>CRM US Equity</t>
+          <t>BRK/B UN Equity</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CRM US Equity</t>
+          <t>BRK/B UN Equity</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CRM US 11/15/24 C310 Equity</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>291.11</v>
+          <t>BRKB US 11/15/24 C490 Equity</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>310</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>CRM US 11/15/24 C310 Equity</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>0.210993</v>
+        <v>465.85</v>
+      </c>
+      <c r="F9" t="n">
+        <v>490</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>BRKB US 11/15/24 C490 Equity</t>
+        </is>
       </c>
       <c r="I9" t="n">
-        <v>0.041053</v>
+        <v>0.171691</v>
       </c>
       <c r="J9" t="n">
-        <v>2.48</v>
+        <v>0.053104</v>
       </c>
       <c r="K9" t="n">
-        <v>1039</v>
+        <v>2.15</v>
       </c>
       <c r="L9" t="n">
-        <v>2.37</v>
+        <v>2.01</v>
       </c>
       <c r="M9" t="n">
-        <v>320.2210000000001</v>
+        <v>745</v>
       </c>
       <c r="N9" t="n">
-        <v>0.06488956064717799</v>
+        <v>512.4350000000001</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.05184072126220873</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FTNT UW Equity</t>
+          <t>CRM US Equity</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FTNT UW Equity</t>
+          <t>CRM US Equity</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FTNT US 11/15/24 C90 Equity</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>80.86</v>
+          <t>CRM US 11/15/24 C310 Equity</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>90</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>FTNT US 11/15/24 C90 Equity</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>0.237577</v>
+        <v>291.11</v>
+      </c>
+      <c r="F10" t="n">
+        <v>310</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CRM US 11/15/24 C310 Equity</t>
+        </is>
       </c>
       <c r="I10" t="n">
-        <v>0.02337</v>
+        <v>0.210993</v>
       </c>
       <c r="J10" t="n">
-        <v>1.4</v>
+        <v>0.041053</v>
       </c>
       <c r="K10" t="n">
-        <v>712</v>
+        <v>2.48</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>2.37</v>
       </c>
       <c r="M10" t="n">
-        <v>88.94600000000001</v>
+        <v>1039</v>
       </c>
       <c r="N10" t="n">
-        <v>0.113034875092753</v>
+        <v>320.2210000000001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.06488956064717799</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>GEBN SE Equity</t>
+          <t>FTNT UW Equity</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GEBN SE Equity</t>
+          <t>FTNT UW Equity</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GEBN SW 11/15/24 C560 Equity</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>524.6</v>
+          <t>FTNT US 11/15/24 C90 Equity</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>560</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>GEBN SW 11/15/24 C560 Equity</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>0.227052</v>
+        <v>80.86</v>
+      </c>
+      <c r="F11" t="n">
+        <v>90</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>FTNT US 11/15/24 C90 Equity</t>
+        </is>
       </c>
       <c r="I11" t="n">
-        <v>0.050146</v>
+        <v>0.237577</v>
       </c>
       <c r="J11" t="n">
-        <v>4.35</v>
+        <v>0.02337</v>
       </c>
       <c r="K11" t="n">
-        <v>366</v>
+        <v>1.4</v>
       </c>
       <c r="L11" t="n">
-        <v>2.5</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
-        <v>577.0600000000001</v>
+        <v>712</v>
       </c>
       <c r="N11" t="n">
-        <v>0.06747998475028583</v>
+        <v>88.94600000000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.113034875092753</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>GOOGL US Equity</t>
+          <t>GEBN SE Equity</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GOOGL US Equity</t>
+          <t>GEBN SE Equity</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GOOGL US 11/15/24 C180 Equity</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>162.93</v>
+          <t>GEBN SW 11/15/24 C560 Equity</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>180</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>GOOGL US 11/15/24 C180 Equity</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>0.17296</v>
+        <v>529.8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>560</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>GEBN SW 11/15/24 C560 Equity</t>
+        </is>
       </c>
       <c r="I12" t="n">
-        <v>0.026908</v>
+        <v>0.227052</v>
       </c>
       <c r="J12" t="n">
-        <v>1.38</v>
+        <v>0.050146</v>
       </c>
       <c r="K12" t="n">
-        <v>15347</v>
+        <v>4.15</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>2.3</v>
       </c>
       <c r="M12" t="n">
-        <v>179.223</v>
+        <v>366</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1047689191677408</v>
+        <v>582.78</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.05700264250660636</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LLY UN Equity</t>
+          <t>GOOGL US Equity</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LLY UN Equity</t>
+          <t>GOOGL US Equity</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LLY US 11/15/24 C1010 Equity</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>917.12</v>
+          <t>GOOGL US 11/15/24 C180 Equity</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>1010</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>LLY US 11/15/24 C1010 Equity</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>0.218449</v>
+        <v>162.93</v>
+      </c>
+      <c r="F13" t="n">
+        <v>180</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>GOOGL US 11/15/24 C180 Equity</t>
+        </is>
       </c>
       <c r="I13" t="n">
-        <v>0.026675</v>
+        <v>0.17296</v>
       </c>
       <c r="J13" t="n">
-        <v>12.6</v>
+        <v>0.026908</v>
       </c>
       <c r="K13" t="n">
-        <v>229</v>
+        <v>1.38</v>
       </c>
       <c r="L13" t="n">
-        <v>11.3</v>
+        <v>1.31</v>
       </c>
       <c r="M13" t="n">
-        <v>1008.832</v>
+        <v>15347</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1012735519888346</v>
+        <v>179.223</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.1047689191677408</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>MA UN Equity</t>
+          <t>LLY UN Equity</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MA UN Equity</t>
+          <t>LLY UN Equity</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MA US 11/15/24 C550 Equity</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>513.76</v>
+          <t>LLY US 11/15/24 C1010 Equity</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>550</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>MA US 11/15/24 C550 Equity</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>0.150935</v>
+        <v>917.12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1010</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>LLY US 11/15/24 C1010 Equity</t>
+        </is>
       </c>
       <c r="I14" t="n">
-        <v>0.038506</v>
+        <v>0.218449</v>
       </c>
       <c r="J14" t="n">
-        <v>2.61</v>
+        <v>0.026675</v>
       </c>
       <c r="K14" t="n">
-        <v>107</v>
+        <v>12.6</v>
       </c>
       <c r="L14" t="n">
-        <v>2.02</v>
+        <v>11.3</v>
       </c>
       <c r="M14" t="n">
-        <v>565.1360000000001</v>
+        <v>229</v>
       </c>
       <c r="N14" t="n">
-        <v>0.07053877296792277</v>
+        <v>1008.832</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.1012735519888346</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>MC FP Equity</t>
+          <t>MA UN Equity</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MC FP Equity</t>
+          <t>MA UN Equity</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MC1 FP 11/15/24 C680 Equity</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>609.4</v>
+          <t>MA US 11/15/24 C550 Equity</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>680</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>MC1 FP 11/15/24 C680 Equity</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>0.154895</v>
+        <v>513.76</v>
+      </c>
+      <c r="F15" t="n">
+        <v>550</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>MA US 11/15/24 C550 Equity</t>
+        </is>
       </c>
       <c r="I15" t="n">
-        <v>0.031242</v>
+        <v>0.150935</v>
       </c>
       <c r="J15" t="n">
-        <v>4.08</v>
+        <v>0.038506</v>
       </c>
       <c r="K15" t="n">
-        <v>555</v>
+        <v>2.61</v>
       </c>
       <c r="L15" t="n">
-        <v>3.4</v>
+        <v>2.02</v>
       </c>
       <c r="M15" t="n">
-        <v>670.34</v>
+        <v>107</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1158516573679029</v>
+        <v>565.1360000000001</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.07053877296792277</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MSFT UW Equity</t>
+          <t>MC FP Equity</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MSFT UW Equity</t>
+          <t>MC FP Equity</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MSFT US 11/15/24 C450 Equity</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>416.72</v>
+          <t>MC1 FP 11/15/24 C680 Equity</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>450</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>MSFT US 11/15/24 C450 Equity</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>0.183216</v>
+        <v>628.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>680</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>MC1 FP 11/15/24 C680 Equity</t>
+        </is>
       </c>
       <c r="I16" t="n">
-        <v>0.034381</v>
+        <v>0.154895</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>0.031242</v>
       </c>
       <c r="K16" t="n">
-        <v>7269</v>
+        <v>3.86</v>
       </c>
       <c r="L16" t="n">
-        <v>3.05</v>
+        <v>3.34</v>
       </c>
       <c r="M16" t="n">
-        <v>458.3920000000001</v>
+        <v>555</v>
       </c>
       <c r="N16" t="n">
-        <v>0.07986177769245528</v>
+        <v>691.35</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.08194112967382661</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>NFLX UW Equity</t>
+          <t>MSFT UW Equity</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NFLX UW Equity</t>
+          <t>MSFT UW Equity</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NFLX US 11/15/24 C755 Equity</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>687.65</v>
+          <t>MSFT US 11/15/24 C450 Equity</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>755</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>NFLX US 11/15/24 C755 Equity</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>0.247886</v>
+        <v>416.72</v>
+      </c>
+      <c r="F17" t="n">
+        <v>450</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>MSFT US 11/15/24 C450 Equity</t>
+        </is>
       </c>
       <c r="I17" t="n">
-        <v>0.027</v>
+        <v>0.183216</v>
       </c>
       <c r="J17" t="n">
-        <v>13.3</v>
+        <v>0.034381</v>
       </c>
       <c r="K17" t="n">
-        <v>156</v>
+        <v>3.2</v>
       </c>
       <c r="L17" t="n">
-        <v>9.949999999999999</v>
+        <v>3.05</v>
       </c>
       <c r="M17" t="n">
-        <v>756.4150000000001</v>
+        <v>7269</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0979422671417145</v>
+        <v>458.3920000000001</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.07986177769245528</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>NOVOB DC Equity</t>
+          <t>NFLX UW Equity</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NOVOB DC Equity</t>
+          <t>NFLX UW Equity</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NOVOB DC 11/15/24 C900 Equity</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>816.6</v>
+          <t>NFLX US 11/15/24 C755 Equity</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>900</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>NOVOB DC 11/15/24 C900 Equity</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>0.215658</v>
+        <v>687.65</v>
+      </c>
+      <c r="F18" t="n">
+        <v>755</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NFLX US 11/15/24 C755 Equity</t>
+        </is>
       </c>
       <c r="I18" t="n">
-        <v>0.024553</v>
+        <v>0.247886</v>
       </c>
       <c r="J18" t="n">
-        <v>11.25</v>
+        <v>0.027</v>
       </c>
       <c r="K18" t="n">
-        <v>523</v>
+        <v>13.3</v>
       </c>
       <c r="L18" t="n">
-        <v>7.9</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="M18" t="n">
-        <v>898.2600000000001</v>
+        <v>156</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1021307861866274</v>
+        <v>756.4150000000001</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0979422671417145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>NVDA UW Equity</t>
+          <t>NOVOB DC Equity</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NVDA UW Equity</t>
+          <t>NOVOB DC Equity</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NVDA US 11/15/24 C150 Equity</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>136.93</v>
+          <t>NOVOB DC 11/15/24 C900 Equity</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>150</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>NVDA US 11/15/24 C150 Equity</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>0.282643</v>
+        <v>807.9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>900</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NOVOB DC 11/15/24 C900 Equity</t>
+        </is>
       </c>
       <c r="I19" t="n">
-        <v>0.0249</v>
+        <v>0.204877</v>
       </c>
       <c r="J19" t="n">
-        <v>3.05</v>
+        <v>0.0238</v>
       </c>
       <c r="K19" t="n">
-        <v>58805</v>
+        <v>10.5</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>7.4</v>
       </c>
       <c r="M19" t="n">
-        <v>150.623</v>
+        <v>523</v>
       </c>
       <c r="N19" t="n">
-        <v>0.09545023004454833</v>
+        <v>888.6900000000001</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.1139992573338284</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RSG UN Equity</t>
+          <t>NVDA UW Equity</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RSG UN Equity</t>
+          <t>NVDA UW Equity</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RSG US 11/15/24 C220 Equity</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>205.62</v>
+          <t>NVDA US 11/15/24 C150 Equity</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>220</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>RSG US 11/15/24 C220 Equity</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>0.163884</v>
+        <v>136.93</v>
+      </c>
+      <c r="F20" t="n">
+        <v>150</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NVDA US 11/15/24 C150 Equity</t>
+        </is>
       </c>
       <c r="I20" t="n">
-        <v>0.041848</v>
+        <v>0.282643</v>
       </c>
       <c r="J20" t="n">
-        <v>1.25</v>
+        <v>0.0249</v>
       </c>
       <c r="K20" t="n">
-        <v>164</v>
+        <v>3.05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.55</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>226.182</v>
+        <v>58805</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0699348312420971</v>
+        <v>150.623</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.09545023004454833</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>SAP GY Equity</t>
+          <t>RSG UN Equity</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAP GY Equity</t>
+          <t>RSG UN Equity</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SAP GR 11/15/24 C230 Equity</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>211.6</v>
+          <t>RSG US 11/15/24 C220 Equity</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E21" t="n">
-        <v>230</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>SAP GR 11/15/24 C230 Equity</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>0.186661</v>
+        <v>205.62</v>
+      </c>
+      <c r="F21" t="n">
+        <v>220</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>RSG US 11/15/24 C220 Equity</t>
+        </is>
       </c>
       <c r="I21" t="n">
-        <v>0.029133</v>
+        <v>0.163884</v>
       </c>
       <c r="J21" t="n">
-        <v>2.28</v>
+        <v>0.041848</v>
       </c>
       <c r="K21" t="n">
-        <v>184</v>
+        <v>1.25</v>
       </c>
       <c r="L21" t="n">
-        <v>1.76</v>
+        <v>0.55</v>
       </c>
       <c r="M21" t="n">
-        <v>232.76</v>
+        <v>164</v>
       </c>
       <c r="N21" t="n">
-        <v>0.08695652173913038</v>
+        <v>226.182</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.0699348312420971</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>SPX Index</t>
+          <t>SAP GY Equity</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SPX Index</t>
+          <t>SAP GY Equity</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SPXW US 11/15/24 P5260 Index</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>5841.47</v>
+          <t>SAP GR 11/15/24 C230 Equity</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v>5260</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>SPXW US 11/15/24 P5260 Index</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.06063</v>
+        <v>211.45</v>
+      </c>
+      <c r="F22" t="n">
+        <v>230</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>SAP GR 11/15/24 C230 Equity</t>
+        </is>
       </c>
       <c r="I22" t="n">
-        <v>0.016447</v>
+        <v>0.199885</v>
       </c>
       <c r="J22" t="n">
-        <v>11.6</v>
+        <v>0.030063</v>
       </c>
       <c r="K22" t="n">
-        <v>190</v>
+        <v>2.49</v>
       </c>
       <c r="L22" t="n">
-        <v>11.3</v>
+        <v>1.94</v>
       </c>
       <c r="M22" t="n">
-        <v>5257.323</v>
+        <v>184</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.09954172494252311</v>
+        <v>232.595</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.08772759517616469</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>SU FP Equity</t>
+          <t>SPX Index</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SU FP Equity</t>
+          <t>SPX Index</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SU1 FP 11/15/24 C260 Equity</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>247.45</v>
+          <t>SPXW US 11/15/24 P5260 Index</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PUT</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>260</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>SU1 FP 11/15/24 C260 Equity</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>0.261612</v>
+        <v>5841.47</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5260</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>SPXW US 11/15/24 P5260 Index</t>
+        </is>
       </c>
       <c r="I23" t="n">
-        <v>0.040838</v>
+        <v>-0.059732</v>
       </c>
       <c r="J23" t="n">
-        <v>3.04</v>
+        <v>0.016263</v>
       </c>
       <c r="K23" t="n">
-        <v>309</v>
+        <v>11.3</v>
       </c>
       <c r="L23" t="n">
-        <v>2.76</v>
+        <v>11.1</v>
       </c>
       <c r="M23" t="n">
-        <v>272.195</v>
+        <v>190</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0507173166296222</v>
+        <v>5257.323</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.09954172494252311</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
+          <t>SU FP Equity</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SU FP Equity</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SU1 FP 11/15/24 C260 Equity</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>247</v>
+      </c>
+      <c r="F24" t="n">
+        <v>260</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>SU1 FP 11/15/24 C260 Equity</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0.277008</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.043299</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="M24" t="n">
+        <v>309</v>
+      </c>
+      <c r="N24" t="n">
+        <v>271.7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.05263157894736836</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
           <t>TTE FP Equity</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>TTE FP Equity</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>TO1 FP 11/15/24 C64 Equity</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>59.78</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CALL</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>60.31</v>
+      </c>
+      <c r="F25" t="n">
         <v>64</v>
       </c>
-      <c r="F24" s="2" t="n">
-        <v>45611</v>
-      </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" s="2" t="n">
+        <v>45611</v>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>TO1 FP 11/15/24 C64 Equity</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v>0.193888</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.041985</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="I25" t="n">
+        <v>0.199887</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.043528</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M25" t="n">
         <v>464</v>
       </c>
-      <c r="L24" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="M24" t="n">
-        <v>65.75800000000001</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.07059217129474749</v>
+      <c r="N25" t="n">
+        <v>66.34100000000001</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.06118388326977287</v>
       </c>
     </row>
   </sheetData>
